--- a/MPTrx/_test transaction template.xlsx
+++ b/MPTrx/_test transaction template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -93,15 +93,9 @@
     <t>TTPhrase</t>
   </si>
   <si>
-    <t>[Organization,]</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
-    <t>tPartyReqdOrg</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Commitment van Klant</t>
+  </si>
+  <si>
+    <t>tPartyReqdOrgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -718,16 +718,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,10 +756,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -768,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -811,10 +811,10 @@
         <v>TEST</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -833,10 +833,10 @@
         <v>TEST</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
@@ -855,10 +855,10 @@
         <v>TEST</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -877,10 +877,10 @@
         <v>TEST</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -897,10 +897,10 @@
         <v>TEST</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -928,10 +928,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -969,11 +969,11 @@
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
+        <f t="shared" ref="A3:A21" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
         <v>Obj_TEST_Commitment van Systeem</v>
       </c>
       <c r="B3" s="16" t="str">
-        <f t="shared" ref="B3:B21" si="0">IF($A3="","",$A3)</f>
+        <f t="shared" ref="B3:B21" si="1">IF($A3="","",$A3)</f>
         <v>Obj_TEST_Commitment van Systeem</v>
       </c>
       <c r="C3" s="14" t="str">
@@ -981,22 +981,22 @@
         <v>TEST</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
-        <f>IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
+        <f t="shared" si="0"/>
         <v>Obj_TEST_Commitment van Klant</v>
       </c>
       <c r="B4" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Obj_TEST_Commitment van Klant</v>
       </c>
       <c r="C4" s="14" t="str">
@@ -1004,22 +1004,22 @@
         <v>TEST</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>IF(OR($C5="",$D5=""),"",CONCATENATE("Obj_",$C5,"_",$D5))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B5" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C5" s="14" t="str">
@@ -1030,11 +1030,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
-        <f>IF(OR($C6="",$D6=""),"",CONCATENATE("Obj_",$C6,"_",$D6))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B6" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C6" s="14" t="str">
@@ -1046,11 +1046,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>IF(OR($C7="",$D7=""),"",CONCATENATE("Obj_",$C7,"_",$D7))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B7" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C7" s="14" t="str">
@@ -1062,11 +1062,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
-        <f>IF(OR($C8="",$D8=""),"",CONCATENATE("Obj_",$C8,"_",$D8))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B8" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C8" s="14" t="str">
@@ -1078,11 +1078,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>IF(OR($C9="",$D9=""),"",CONCATENATE("Obj_",$C9,"_",$D9))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B9" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C9" s="14" t="str">
@@ -1094,11 +1094,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
-        <f>IF(OR($C10="",$D10=""),"",CONCATENATE("Obj_",$C10,"_",$D10))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C10" s="14" t="str">
@@ -1109,11 +1109,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>IF(OR($C11="",$D11=""),"",CONCATENATE("Obj_",$C11,"_",$D11))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C11" s="14" t="str">
@@ -1124,11 +1124,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
-        <f>IF(OR($C12="",$D12=""),"",CONCATENATE("Obj_",$C12,"_",$D12))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C12" s="14" t="str">
@@ -1138,11 +1138,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>IF(OR($C13="",$D13=""),"",CONCATENATE("Obj_",$C13,"_",$D13))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C13" s="14" t="str">
@@ -1152,11 +1152,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
-        <f>IF(OR($C14="",$D14=""),"",CONCATENATE("Obj_",$C14,"_",$D14))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C14" s="14" t="str">
@@ -1166,11 +1166,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>IF(OR($C15="",$D15=""),"",CONCATENATE("Obj_",$C15,"_",$D15))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C15" s="14" t="str">
@@ -1180,11 +1180,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
-        <f>IF(OR($C16="",$D16=""),"",CONCATENATE("Obj_",$C16,"_",$D16))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C16" s="14" t="str">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>IF(OR($C17="",$D17=""),"",CONCATENATE("Obj_",$C17,"_",$D17))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C17" s="14" t="str">
@@ -1208,11 +1208,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
-        <f>IF(OR($C18="",$D18=""),"",CONCATENATE("Obj_",$C18,"_",$D18))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C18" s="14" t="str">
@@ -1224,11 +1224,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>IF(OR($C19="",$D19=""),"",CONCATENATE("Obj_",$C19,"_",$D19))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C19" s="14" t="str">
@@ -1240,11 +1240,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
-        <f>IF(OR($C20="",$D20=""),"",CONCATENATE("Obj_",$C20,"_",$D20))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C20" s="14" t="str">
@@ -1256,11 +1256,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>IF(OR($C21="",$D21=""),"",CONCATENATE("Obj_",$C21,"_",$D21))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C21" s="14" t="str">
@@ -1365,7 +1365,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A6" si="0">IF(OR($B3="",$C3=""),"",CONCATENATE("Var_",$B3,"_",$C3))</f>
+        <f t="shared" ref="A3:A5" si="0">IF(OR($B3="",$C3=""),"",CONCATENATE("Var_",$B3,"_",$C3))</f>
         <v>Var_TEST_de latende partij is een pensioenverzekeraar</v>
       </c>
       <c r="B3" s="14" t="str">
@@ -1373,13 +1373,13 @@
         <v>TEST</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1393,13 +1393,13 @@
         <v>TEST</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1413,13 +1413,13 @@
         <v>TEST</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1432,13 +1432,13 @@
         <v>TEST</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1663,10 +1663,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1721,34 +1721,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
